--- a/data/trans_orig/P1418-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C601963-9542-48FE-869E-85E518440CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D9DB37-F0FA-4FB4-B2D4-FF3AC1BE36C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52CC1E0D-49FF-4814-9A67-8140C443989D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{853A010F-0065-4614-BCBE-C19DBD8A6CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="631">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1852 +95,1843 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>9,67%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>6,1%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AD2476-623C-492D-9F34-DBE6E7FC1F22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1E4DC-FFAF-4254-88CF-1D05C5F23D32}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2945,7 +2936,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -2954,13 +2945,13 @@
         <v>23833</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -2969,13 +2960,13 @@
         <v>35098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2981,13 @@
         <v>307580</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -3005,13 +2996,13 @@
         <v>311579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>609</v>
@@ -3020,13 +3011,13 @@
         <v>619160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3100,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3115,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3130,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3136,13 @@
         <v>11829</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3160,13 +3151,13 @@
         <v>29011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -3175,13 +3166,13 @@
         <v>40840</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3187,13 @@
         <v>346842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>354</v>
@@ -3211,13 +3202,13 @@
         <v>342445</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>702</v>
@@ -3226,13 +3217,13 @@
         <v>689287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3279,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3306,7 +3297,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3321,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3336,7 +3327,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3342,13 @@
         <v>10719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -3366,13 +3357,13 @@
         <v>22228</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -3381,13 +3372,13 @@
         <v>32947</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3393,13 @@
         <v>192589</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>177</v>
@@ -3417,13 +3408,13 @@
         <v>185440</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -3432,13 +3423,13 @@
         <v>378029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,10 +3551,10 @@
         <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3572,13 +3563,13 @@
         <v>28429</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -3587,13 +3578,13 @@
         <v>38184</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3599,13 @@
         <v>261056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>243</v>
@@ -3623,13 +3614,13 @@
         <v>249715</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>499</v>
@@ -3638,13 +3629,13 @@
         <v>510771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3691,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3718,7 +3709,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3733,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3748,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3754,13 @@
         <v>29353</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -3778,13 +3769,13 @@
         <v>57559</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>88</v>
@@ -3793,13 +3784,13 @@
         <v>86912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3805,13 @@
         <v>585674</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>563</v>
@@ -3829,13 +3820,13 @@
         <v>580660</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>1131</v>
@@ -3844,13 +3835,13 @@
         <v>1166334</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,7 +3897,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3924,7 +3915,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3939,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3954,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3960,13 @@
         <v>65911</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>82</v>
@@ -3984,13 +3975,13 @@
         <v>89665</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
         <v>150</v>
@@ -3999,13 +3990,13 @@
         <v>155576</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4011,13 @@
         <v>677884</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>663</v>
@@ -4035,13 +4026,13 @@
         <v>693846</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>1331</v>
@@ -4050,13 +4041,13 @@
         <v>1371730</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4145,7 +4136,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4160,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4166,13 @@
         <v>179083</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
         <v>331</v>
@@ -4190,13 +4181,13 @@
         <v>343152</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M37" s="7">
         <v>514</v>
@@ -4205,13 +4196,13 @@
         <v>522235</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4217,13 @@
         <v>3097461</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H38" s="7">
         <v>2966</v>
@@ -4241,28 +4232,28 @@
         <v>3036046</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M38" s="7">
         <v>5997</v>
       </c>
       <c r="N38" s="7">
-        <v>6133505</v>
+        <v>6133506</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,7 +4295,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4318,7 +4309,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F809E02D-C08B-4B32-9894-E9BAAF357DC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644DEEC9-6929-4E47-B2CC-70E966B1C67A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4359,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4464,39 +4455,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,39 +4500,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,39 +4545,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,39 +4590,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4699,13 +4690,13 @@
         <v>13543</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4714,13 +4705,13 @@
         <v>36090</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -4729,13 +4720,13 @@
         <v>49633</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,10 +4741,10 @@
         <v>491984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>213</v>
@@ -4926,7 +4917,7 @@
         <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4935,13 +4926,13 @@
         <v>34418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4947,13 @@
         <v>312711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>295</v>
@@ -4971,13 +4962,13 @@
         <v>317937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>603</v>
@@ -4986,13 +4977,13 @@
         <v>630648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5039,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5066,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5081,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5096,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5102,13 @@
         <v>24524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5126,13 +5117,13 @@
         <v>79804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5141,13 +5132,13 @@
         <v>104328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5153,13 @@
         <v>644196</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>553</v>
@@ -5177,13 +5168,13 @@
         <v>596392</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>1155</v>
@@ -5192,13 +5183,13 @@
         <v>1240588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,7 +5245,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5302,7 +5293,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5535,7 @@
         <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -5553,13 +5544,13 @@
         <v>36155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5565,13 @@
         <v>264511</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>242</v>
@@ -5589,13 +5580,13 @@
         <v>251411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>494</v>
@@ -5604,13 +5595,13 @@
         <v>515922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,7 +5657,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5684,7 +5675,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5714,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5720,13 @@
         <v>27265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>71</v>
@@ -5744,13 +5735,13 @@
         <v>79780</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -5759,13 +5750,13 @@
         <v>107045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5771,13 @@
         <v>635523</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H30" s="7">
         <v>565</v>
@@ -5795,13 +5786,13 @@
         <v>614073</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M30" s="7">
         <v>1159</v>
@@ -5810,13 +5801,13 @@
         <v>1249596</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5863,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5890,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5905,7 +5896,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5920,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5926,13 @@
         <v>10650</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H33" s="7">
         <v>61</v>
@@ -5950,13 +5941,13 @@
         <v>67088</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M33" s="7">
         <v>71</v>
@@ -5965,13 +5956,13 @@
         <v>77738</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5977,13 @@
         <v>768448</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H34" s="7">
         <v>694</v>
@@ -6001,13 +5992,13 @@
         <v>754443</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>1401</v>
@@ -6016,13 +6007,13 @@
         <v>1522891</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,7 +6087,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6111,7 +6102,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6126,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6132,13 @@
         <v>106891</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H37" s="7">
         <v>318</v>
@@ -6156,13 +6147,13 @@
         <v>345832</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="M37" s="7">
         <v>416</v>
@@ -6171,13 +6162,13 @@
         <v>452724</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>329</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6183,13 @@
         <v>3319888</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="H38" s="7">
         <v>2977</v>
@@ -6207,28 +6198,28 @@
         <v>3208220</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>334</v>
+        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>6088</v>
       </c>
       <c r="N38" s="7">
-        <v>6528106</v>
+        <v>6528107</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,7 +6261,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6284,7 +6275,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6308,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E73ACFB-49CE-475B-94EC-CA13F06F9064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C76A1-D8B2-49E0-8175-F07145AF5A65}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6325,7 +6316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6453,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6468,7 +6459,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6474,13 @@
         <v>5752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -6498,13 +6489,13 @@
         <v>29265</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -6513,13 +6504,13 @@
         <v>35017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6525,13 @@
         <v>288009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>249</v>
@@ -6549,13 +6540,13 @@
         <v>259438</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
@@ -6564,13 +6555,13 @@
         <v>547447</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6635,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6659,7 +6650,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6689,13 +6680,13 @@
         <v>9178</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -6704,13 +6695,13 @@
         <v>24638</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -6719,13 +6710,13 @@
         <v>33816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6731,13 @@
         <v>493397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>464</v>
@@ -6755,13 +6746,13 @@
         <v>498446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>930</v>
@@ -6770,13 +6761,13 @@
         <v>991843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6880,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6886,13 @@
         <v>10593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6910,13 +6901,13 @@
         <v>14065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -6925,13 +6916,13 @@
         <v>24658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6937,13 @@
         <v>307972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -6961,13 +6952,13 @@
         <v>322244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -6976,13 +6967,13 @@
         <v>630216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7029,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7056,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7071,7 +7062,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7086,7 +7077,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7092,13 @@
         <v>7842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -7116,13 +7107,13 @@
         <v>18899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -7134,10 +7125,10 @@
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7143,13 @@
         <v>362122</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H18" s="7">
         <v>342</v>
@@ -7167,13 +7158,13 @@
         <v>368384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M18" s="7">
         <v>688</v>
@@ -7182,13 +7173,13 @@
         <v>730506</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7235,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7277,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7292,7 +7283,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7298,13 @@
         <v>1001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -7322,13 +7313,13 @@
         <v>13854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -7340,10 +7331,10 @@
         <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7349,13 @@
         <v>210220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>210</v>
@@ -7373,13 +7364,13 @@
         <v>204733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>421</v>
@@ -7388,13 +7379,13 @@
         <v>414952</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7459,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7513,13 +7504,13 @@
         <v>8905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7528,13 +7519,13 @@
         <v>17708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -7543,13 +7534,13 @@
         <v>26613</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7555,13 @@
         <v>254218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>248</v>
@@ -7579,13 +7570,13 @@
         <v>255407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -7594,13 +7585,13 @@
         <v>509625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,7 +7647,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7674,7 +7665,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7704,7 +7695,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7710,13 @@
         <v>21258</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -7734,13 +7725,13 @@
         <v>71464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -7749,13 +7740,13 @@
         <v>92722</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>446</v>
+        <v>19</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7761,13 @@
         <v>635300</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>137</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H30" s="7">
         <v>584</v>
@@ -7785,13 +7776,13 @@
         <v>619830</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M30" s="7">
         <v>1144</v>
@@ -7800,13 +7791,13 @@
         <v>1255130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7853,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7880,7 +7871,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7895,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7910,7 +7901,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7916,13 @@
         <v>17183</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="H33" s="7">
         <v>53</v>
@@ -7940,13 +7931,13 @@
         <v>63230</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>461</v>
+        <v>262</v>
       </c>
       <c r="M33" s="7">
         <v>69</v>
@@ -7955,13 +7946,13 @@
         <v>80412</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>464</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,13 +7967,13 @@
         <v>761400</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H34" s="7">
         <v>702</v>
@@ -7991,13 +7982,13 @@
         <v>762937</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>469</v>
+        <v>271</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="M34" s="7">
         <v>1436</v>
@@ -8006,13 +7997,13 @@
         <v>1524338</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>472</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,7 +8077,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8101,7 +8092,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8116,7 +8107,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8122,13 @@
         <v>81712</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>474</v>
+        <v>315</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>468</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H37" s="7">
         <v>221</v>
@@ -8146,13 +8137,13 @@
         <v>253123</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>470</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M37" s="7">
         <v>303</v>
@@ -8161,13 +8152,13 @@
         <v>334835</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>477</v>
+        <v>282</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8173,13 @@
         <v>3312638</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>480</v>
+        <v>322</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>230</v>
+        <v>476</v>
       </c>
       <c r="H38" s="7">
         <v>3117</v>
@@ -8197,13 +8188,13 @@
         <v>3291419</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>479</v>
       </c>
       <c r="M38" s="7">
         <v>6266</v>
@@ -8212,13 +8203,13 @@
         <v>6604057</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,7 +8265,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8298,7 +8289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3393030-28FF-408A-AB79-BB522937E987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E6B32-9660-494F-8C2D-36BFFA92EDE5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8315,7 +8306,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8428,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8458,7 +8449,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8473,13 +8464,13 @@
         <v>4701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>488</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -8488,13 +8479,13 @@
         <v>7472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -8503,13 +8494,13 @@
         <v>12173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8524,13 +8515,13 @@
         <v>255597</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>331</v>
+        <v>493</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>521</v>
@@ -8539,13 +8530,13 @@
         <v>263771</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M6" s="7">
         <v>845</v>
@@ -8554,13 +8545,13 @@
         <v>519368</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8634,7 +8625,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8649,7 +8640,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8664,7 +8655,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,13 +8670,13 @@
         <v>12569</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>293</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -8694,13 +8685,13 @@
         <v>32583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>506</v>
+        <v>381</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -8709,13 +8700,13 @@
         <v>45153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>143</v>
+        <v>506</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8730,13 +8721,13 @@
         <v>505658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>667</v>
@@ -8745,13 +8736,13 @@
         <v>519701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>513</v>
+        <v>389</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M10" s="7">
         <v>1036</v>
@@ -8760,13 +8751,13 @@
         <v>1025358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,7 +8831,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8870,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +8876,13 @@
         <v>19787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -8900,13 +8891,13 @@
         <v>31000</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -8915,13 +8906,13 @@
         <v>50787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8936,13 +8927,13 @@
         <v>302453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -8951,13 +8942,13 @@
         <v>342284</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
@@ -8966,13 +8957,13 @@
         <v>644737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>531</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,7 +9019,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9046,7 +9037,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9061,7 +9052,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9076,7 +9067,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,13 +9082,13 @@
         <v>13349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>528</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -9106,13 +9097,13 @@
         <v>22926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -9121,13 +9112,13 @@
         <v>36276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,13 +9133,13 @@
         <v>308891</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="H18" s="7">
         <v>552</v>
@@ -9157,13 +9148,13 @@
         <v>405630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>543</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>827</v>
@@ -9172,13 +9163,13 @@
         <v>714520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>245</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9234,7 +9225,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9252,7 +9243,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9261,13 +9252,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9276,13 +9267,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9288,13 @@
         <v>6303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>551</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -9312,13 +9303,13 @@
         <v>24465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>553</v>
+        <v>384</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -9327,13 +9318,13 @@
         <v>30768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9339,13 @@
         <v>190445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>559</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -9363,13 +9354,13 @@
         <v>206708</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>555</v>
       </c>
       <c r="M22" s="7">
         <v>699</v>
@@ -9378,13 +9369,13 @@
         <v>397153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9458,7 +9449,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9467,13 +9458,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9482,13 +9473,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>568</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,13 +9494,13 @@
         <v>23428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>561</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>562</v>
       </c>
       <c r="H25" s="7">
         <v>89</v>
@@ -9518,13 +9509,13 @@
         <v>40767</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -9533,13 +9524,13 @@
         <v>64196</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9545,13 @@
         <v>253795</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>570</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>434</v>
+        <v>571</v>
       </c>
       <c r="H26" s="7">
         <v>370</v>
@@ -9569,13 +9560,13 @@
         <v>234137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="M26" s="7">
         <v>695</v>
@@ -9584,13 +9575,13 @@
         <v>487932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9646,7 +9637,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9664,7 +9655,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9694,7 +9685,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9709,13 +9700,13 @@
         <v>41515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
+        <v>580</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -9724,13 +9715,13 @@
         <v>116212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>215</v>
@@ -9739,13 +9730,13 @@
         <v>157728</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,13 +9751,13 @@
         <v>581838</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>137</v>
+        <v>590</v>
       </c>
       <c r="H30" s="7">
         <v>783</v>
@@ -9775,13 +9766,13 @@
         <v>684934</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M30" s="7">
         <v>1334</v>
@@ -9790,13 +9781,13 @@
         <v>1266771</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9852,7 +9843,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9870,7 +9861,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9879,13 +9870,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9894,13 +9885,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9915,13 +9906,13 @@
         <v>25721</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H33" s="7">
         <v>74</v>
@@ -9930,13 +9921,13 @@
         <v>58980</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="L33" s="7" t="s">
-        <v>604</v>
+        <v>107</v>
       </c>
       <c r="M33" s="7">
         <v>102</v>
@@ -9945,13 +9936,13 @@
         <v>84702</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9966,13 +9957,13 @@
         <v>833707</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="H34" s="7">
         <v>986</v>
@@ -9981,13 +9972,13 @@
         <v>805890</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>611</v>
+        <v>356</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>610</v>
       </c>
       <c r="M34" s="7">
         <v>1720</v>
@@ -9996,13 +9987,13 @@
         <v>1639597</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10076,7 +10067,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10085,13 +10076,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>340</v>
+        <v>614</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>615</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>324</v>
+        <v>616</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10100,13 +10091,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>617</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10139,7 +10130,7 @@
         <v>621</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>459</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>622</v>
@@ -10148,7 +10139,7 @@
         <v>751</v>
       </c>
       <c r="N37" s="7">
-        <v>481781</v>
+        <v>481782</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>623</v>
@@ -10157,7 +10148,7 @@
         <v>624</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>625</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10172,13 +10163,13 @@
         <v>3232382</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H38" s="7">
         <v>4790</v>
@@ -10187,28 +10178,28 @@
         <v>3463055</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M38" s="7">
         <v>7969</v>
       </c>
       <c r="N38" s="7">
-        <v>6695437</v>
+        <v>6695438</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>633</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10250,7 +10241,7 @@
         <v>8726</v>
       </c>
       <c r="N39" s="7">
-        <v>7208715</v>
+        <v>7208716</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -10264,7 +10255,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1418-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D9DB37-F0FA-4FB4-B2D4-FF3AC1BE36C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0E6CDF-6730-4762-86E8-07721956DA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{853A010F-0065-4614-BCBE-C19DBD8A6CEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78142D51-9AFE-4504-B186-A574FD0BC18D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="627">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1770 +95,1767 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
     <t>6,5%</t>
   </si>
   <si>
@@ -1901,9 +1898,6 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
     <t>8,73%</t>
   </si>
   <si>
@@ -1913,13 +1907,7 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
     <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
   </si>
   <si>
     <t>96,27%</t>
@@ -2343,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1E4DC-FFAF-4254-88CF-1D05C5F23D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E3D33D-97F0-4F9F-A5F8-B651BC02F091}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2960,13 +2948,13 @@
         <v>35098</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2969,13 @@
         <v>307580</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -2996,13 +2984,13 @@
         <v>311579</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>609</v>
@@ -3011,13 +2999,13 @@
         <v>619160</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3091,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3106,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3121,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3124,13 @@
         <v>11829</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3151,13 +3139,13 @@
         <v>29011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -3166,13 +3154,13 @@
         <v>40840</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3175,13 @@
         <v>346842</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>354</v>
@@ -3202,13 +3190,13 @@
         <v>342445</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>702</v>
@@ -3217,13 +3205,13 @@
         <v>689287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3267,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3297,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3312,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3327,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3330,13 @@
         <v>10719</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -3357,13 +3345,13 @@
         <v>22228</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -3372,13 +3360,13 @@
         <v>32947</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3381,13 @@
         <v>192589</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>177</v>
@@ -3408,13 +3396,13 @@
         <v>185440</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>372</v>
@@ -3423,13 +3411,13 @@
         <v>378029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,7 +3473,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3503,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3533,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3536,13 @@
         <v>9755</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3563,13 +3551,13 @@
         <v>28429</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -3578,13 +3566,13 @@
         <v>38184</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3587,13 @@
         <v>261056</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>243</v>
@@ -3614,13 +3602,13 @@
         <v>249715</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>499</v>
@@ -3629,13 +3617,13 @@
         <v>510771</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,7 +3679,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3709,7 +3697,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3724,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3739,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3742,13 @@
         <v>29353</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -3769,13 +3757,13 @@
         <v>57559</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>88</v>
@@ -3784,13 +3772,13 @@
         <v>86912</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3793,13 @@
         <v>585674</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>563</v>
@@ -3820,13 +3808,13 @@
         <v>580660</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>1131</v>
@@ -3835,13 +3823,13 @@
         <v>1166334</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3903,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3930,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3966,7 +3954,7 @@
         <v>165</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="H33" s="7">
         <v>82</v>
@@ -3975,13 +3963,13 @@
         <v>89665</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M33" s="7">
         <v>150</v>
@@ -4014,10 +4002,10 @@
         <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>663</v>
@@ -4026,10 +4014,10 @@
         <v>693846</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>176</v>
@@ -4214,7 +4202,7 @@
         <v>3031</v>
       </c>
       <c r="D38" s="7">
-        <v>3097461</v>
+        <v>3097460</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>191</v>
@@ -4265,7 +4253,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4333,7 +4321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644DEEC9-6929-4E47-B2CC-70E966B1C67A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68466FA-2A80-4948-B591-0FB57B9789EA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4696,7 +4684,7 @@
         <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -4705,13 +4693,13 @@
         <v>36090</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -4720,13 +4708,13 @@
         <v>49633</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4729,13 @@
         <v>491984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>448</v>
@@ -4756,13 +4744,13 @@
         <v>487675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>909</v>
@@ -4771,13 +4759,13 @@
         <v>979659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4866,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4896,13 +4884,13 @@
         <v>11335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4911,13 +4899,13 @@
         <v>23083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4926,13 +4914,13 @@
         <v>34418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4935,13 @@
         <v>312711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>295</v>
@@ -4962,13 +4950,13 @@
         <v>317937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>603</v>
@@ -4977,10 +4965,10 @@
         <v>630648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>238</v>
@@ -5039,7 +5027,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5057,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5072,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5108,7 +5096,7 @@
         <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5135,10 +5123,10 @@
         <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5141,13 @@
         <v>644196</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
         <v>553</v>
@@ -5168,13 +5156,13 @@
         <v>596392</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
         <v>1155</v>
@@ -5183,13 +5171,13 @@
         <v>1240588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5233,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5263,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5278,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5293,7 +5281,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5296,13 @@
         <v>10105</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -5323,13 +5311,13 @@
         <v>33302</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -5338,10 +5326,10 @@
         <v>43407</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>264</v>
@@ -5380,7 +5368,7 @@
         <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>367</v>
@@ -5389,13 +5377,13 @@
         <v>388802</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,7 +5439,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5469,7 +5457,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5499,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5502,13 @@
         <v>9470</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5529,13 +5517,13 @@
         <v>26685</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -5544,13 +5532,13 @@
         <v>36155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5553,13 @@
         <v>264511</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>242</v>
@@ -5580,13 +5568,13 @@
         <v>251411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>494</v>
@@ -5595,13 +5583,13 @@
         <v>515922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,7 +5645,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5675,7 +5663,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5720,13 +5708,13 @@
         <v>27265</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>71</v>
@@ -5735,13 +5723,13 @@
         <v>79780</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -5750,13 +5738,13 @@
         <v>107045</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5759,13 @@
         <v>635523</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H30" s="7">
         <v>565</v>
@@ -5786,13 +5774,13 @@
         <v>614073</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M30" s="7">
         <v>1159</v>
@@ -5801,13 +5789,13 @@
         <v>1249596</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5896,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5926,13 +5914,13 @@
         <v>10650</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H33" s="7">
         <v>61</v>
@@ -5941,13 +5929,13 @@
         <v>67088</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M33" s="7">
         <v>71</v>
@@ -5956,13 +5944,13 @@
         <v>77738</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +5965,13 @@
         <v>768448</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H34" s="7">
         <v>694</v>
@@ -5992,13 +5980,13 @@
         <v>754443</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="M34" s="7">
         <v>1401</v>
@@ -6007,13 +5995,13 @@
         <v>1522891</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>328</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6120,13 @@
         <v>106891</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H37" s="7">
         <v>318</v>
@@ -6147,13 +6135,13 @@
         <v>345832</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>25</v>
+        <v>329</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="M37" s="7">
         <v>416</v>
@@ -6162,13 +6150,13 @@
         <v>452724</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>66</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6171,13 @@
         <v>3319888</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H38" s="7">
         <v>2977</v>
@@ -6198,28 +6186,28 @@
         <v>3208220</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M38" s="7">
         <v>6088</v>
       </c>
       <c r="N38" s="7">
-        <v>6528107</v>
+        <v>6528106</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>339</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,7 +6249,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980831</v>
+        <v>6980830</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6299,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810C76A1-D8B2-49E0-8175-F07145AF5A65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B1C5C7-89FE-44CF-B16B-C14C739EA7D2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6429,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6680,13 +6668,13 @@
         <v>9178</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -6695,13 +6683,13 @@
         <v>24638</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -6710,13 +6698,13 @@
         <v>33816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,13 +6719,13 @@
         <v>493397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>464</v>
@@ -6746,13 +6734,13 @@
         <v>498446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>930</v>
@@ -6761,13 +6749,13 @@
         <v>991843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6871,7 +6859,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,13 +6874,13 @@
         <v>10593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6901,13 +6889,13 @@
         <v>14065</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -6916,13 +6904,13 @@
         <v>24658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6937,13 +6925,13 @@
         <v>307972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -6952,13 +6940,13 @@
         <v>322244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>641</v>
@@ -6967,13 +6955,13 @@
         <v>630216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7017,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7047,7 +7035,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7062,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7077,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7080,13 @@
         <v>7842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -7107,13 +7095,13 @@
         <v>18899</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>129</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -7125,10 +7113,10 @@
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7131,13 @@
         <v>362122</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>407</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>342</v>
@@ -7158,13 +7146,13 @@
         <v>368384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>139</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>688</v>
@@ -7173,13 +7161,13 @@
         <v>730506</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,7 +7223,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7253,7 +7241,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7268,7 +7256,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7283,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7286,13 @@
         <v>1001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -7313,13 +7301,13 @@
         <v>13854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -7328,13 +7316,13 @@
         <v>14856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7337,13 @@
         <v>210220</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>210</v>
@@ -7364,13 +7352,13 @@
         <v>204733</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>421</v>
@@ -7379,13 +7367,13 @@
         <v>414952</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,7 +7429,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7459,7 +7447,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7474,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7504,13 +7492,13 @@
         <v>8905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -7519,13 +7507,13 @@
         <v>17708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -7534,13 +7522,13 @@
         <v>26613</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7543,13 @@
         <v>254218</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>248</v>
@@ -7570,13 +7558,13 @@
         <v>255407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -7585,13 +7573,13 @@
         <v>509625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,7 +7635,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7665,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7695,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7698,13 @@
         <v>21258</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -7725,13 +7713,13 @@
         <v>71464</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -7740,13 +7728,13 @@
         <v>92722</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7749,13 @@
         <v>635300</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>454</v>
+        <v>323</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>584</v>
@@ -7776,13 +7764,13 @@
         <v>619830</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>1144</v>
@@ -7791,13 +7779,13 @@
         <v>1255130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>459</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,7 +7859,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7886,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7916,13 +7904,13 @@
         <v>17183</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="H33" s="7">
         <v>53</v>
@@ -7931,13 +7919,13 @@
         <v>63230</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>262</v>
+        <v>457</v>
       </c>
       <c r="M33" s="7">
         <v>69</v>
@@ -7946,13 +7934,13 @@
         <v>80412</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7955,13 @@
         <v>761400</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H34" s="7">
         <v>702</v>
@@ -7982,13 +7970,13 @@
         <v>762937</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>271</v>
+        <v>465</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="M34" s="7">
         <v>1436</v>
@@ -7997,13 +7985,13 @@
         <v>1524338</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8110,13 @@
         <v>81712</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>469</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H37" s="7">
         <v>221</v>
@@ -8137,13 +8125,13 @@
         <v>253123</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>471</v>
+        <v>277</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M37" s="7">
         <v>303</v>
@@ -8152,13 +8140,13 @@
         <v>334835</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>282</v>
+        <v>474</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8161,13 @@
         <v>3312638</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>322</v>
+        <v>477</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H38" s="7">
         <v>3117</v>
@@ -8188,13 +8176,13 @@
         <v>3291419</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>479</v>
+        <v>286</v>
       </c>
       <c r="M38" s="7">
         <v>6266</v>
@@ -8203,13 +8191,13 @@
         <v>6604057</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>482</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,7 +8277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E6B32-9660-494F-8C2D-36BFFA92EDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C694B77-71BB-40DF-995F-0E097E24663B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8306,7 +8294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8419,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8434,7 +8422,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8449,7 +8437,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,13 +8452,13 @@
         <v>4701</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -8479,13 +8467,13 @@
         <v>7472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -8494,10 +8482,10 @@
         <v>12173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>491</v>
@@ -8521,7 +8509,7 @@
         <v>493</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>521</v>
@@ -8530,13 +8518,13 @@
         <v>263771</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M6" s="7">
         <v>845</v>
@@ -8545,13 +8533,13 @@
         <v>519368</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>497</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>499</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8625,7 +8613,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8640,7 +8628,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8655,7 +8643,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,13 +8658,13 @@
         <v>12569</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>501</v>
+        <v>311</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -8685,13 +8673,13 @@
         <v>32583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>381</v>
+        <v>499</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -8700,10 +8688,10 @@
         <v>45153</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>182</v>
@@ -8721,13 +8709,13 @@
         <v>505658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>667</v>
@@ -8736,13 +8724,13 @@
         <v>519701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>1036</v>
@@ -8751,13 +8739,13 @@
         <v>1025358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8831,7 +8819,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8846,7 +8834,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8861,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,13 +8864,13 @@
         <v>19787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -8891,13 +8879,13 @@
         <v>31000</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -8906,7 +8894,7 @@
         <v>50787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>517</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>518</v>
@@ -8930,10 +8918,10 @@
         <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -8942,13 +8930,13 @@
         <v>342284</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>813</v>
@@ -8957,13 +8945,13 @@
         <v>644737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,7 +9007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9037,7 +9025,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9052,7 +9040,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9067,7 +9055,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9082,13 +9070,13 @@
         <v>13349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -9097,13 +9085,13 @@
         <v>22926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>534</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -9112,13 +9100,13 @@
         <v>36276</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>474</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,13 +9121,13 @@
         <v>308891</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H18" s="7">
         <v>552</v>
@@ -9148,13 +9136,13 @@
         <v>405630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>237</v>
+        <v>526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>539</v>
       </c>
       <c r="M18" s="7">
         <v>827</v>
@@ -9163,13 +9151,13 @@
         <v>714520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>292</v>
+        <v>482</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>537</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9225,7 +9213,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9252,7 +9240,7 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>540</v>
@@ -9267,7 +9255,7 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>542</v>
@@ -9294,7 +9282,7 @@
         <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>546</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -9303,13 +9291,13 @@
         <v>24465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>384</v>
+        <v>548</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -9318,13 +9306,13 @@
         <v>30768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,13 +9327,13 @@
         <v>190445</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>431</v>
@@ -9354,13 +9342,13 @@
         <v>206708</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>699</v>
@@ -9369,13 +9357,13 @@
         <v>397153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,7 +9419,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9458,13 +9446,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9479,7 +9467,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9482,13 @@
         <v>23428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>560</v>
+        <v>43</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>89</v>
@@ -9509,13 +9497,13 @@
         <v>40767</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -9524,13 +9512,13 @@
         <v>64196</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,7 +9533,7 @@
         <v>253795</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>569</v>
+        <v>51</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>570</v>
@@ -9637,7 +9625,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9655,7 +9643,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9861,7 +9849,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9870,7 +9858,7 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
@@ -9885,13 +9873,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>598</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9906,13 +9894,13 @@
         <v>25721</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="H33" s="7">
         <v>74</v>
@@ -9921,13 +9909,13 @@
         <v>58980</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M33" s="7">
         <v>102</v>
@@ -9939,10 +9927,10 @@
         <v>604</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9957,13 +9945,13 @@
         <v>833707</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H34" s="7">
         <v>986</v>
@@ -9972,13 +9960,13 @@
         <v>805890</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>356</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M34" s="7">
         <v>1720</v>
@@ -9987,13 +9975,13 @@
         <v>1639597</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10076,13 +10064,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10091,13 +10079,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10112,13 +10100,13 @@
         <v>147374</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>619</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>620</v>
+        <v>398</v>
       </c>
       <c r="H37" s="7">
         <v>559</v>
@@ -10127,13 +10115,13 @@
         <v>334408</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M37" s="7">
         <v>751</v>
@@ -10142,13 +10130,13 @@
         <v>481782</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>624</v>
+        <v>291</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>229</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10163,13 +10151,13 @@
         <v>3232382</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>626</v>
+        <v>403</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H38" s="7">
         <v>4790</v>
@@ -10178,13 +10166,13 @@
         <v>3463055</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="M38" s="7">
         <v>7969</v>
@@ -10193,13 +10181,13 @@
         <v>6695438</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>537</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1418-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD61C24-83B2-487E-90E9-A3B91D799C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6D7093-F8D5-4065-8880-35F4ABB1BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2306404-8D07-4810-AAE8-9E3197D9EAB5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B125A6EA-A19A-41C1-94A7-2CAD7B0F36AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="592">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -563,7 +563,58 @@
     <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>2,68%</t>
@@ -662,1120 +713,1108 @@
     <t>92,9%</t>
   </si>
   <si>
-    <t>3,67%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA9A7B3-BF00-47E1-B0BD-A130070A8C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D562B5-66E1-410C-9DB6-2D774EA18A65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3599,7 +3638,7 @@
         <v>3031</v>
       </c>
       <c r="D29" s="7">
-        <v>3097461</v>
+        <v>3097460</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>163</v>
@@ -3614,7 +3653,7 @@
         <v>2966</v>
       </c>
       <c r="I29" s="7">
-        <v>3036046</v>
+        <v>3036045</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>166</v>
@@ -3629,7 +3668,7 @@
         <v>5997</v>
       </c>
       <c r="N29" s="7">
-        <v>6133505</v>
+        <v>6133506</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>169</v>
@@ -3650,7 +3689,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3665,7 +3704,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3680,7 +3719,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3718,7 +3757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61053503-E792-4312-86E6-6429B4301792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90750269-A1EA-486C-962A-9C1D7C487079}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3836,43 +3875,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9384</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="7">
+        <v>24519</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>33903</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,43 +3926,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D5" s="7">
+        <v>285354</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="I5" s="7">
+        <v>262726</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="N5" s="7">
+        <v>548080</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,43 +3977,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +4036,13 @@
         <v>13543</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -3994,13 +4051,13 @@
         <v>36090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -4009,13 +4066,13 @@
         <v>49633</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4087,13 @@
         <v>491984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -4045,13 +4102,13 @@
         <v>487675</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -4060,13 +4117,13 @@
         <v>979659</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4191,13 @@
         <v>11335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -4149,10 +4206,10 @@
         <v>23083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>157</v>
@@ -4164,13 +4221,13 @@
         <v>34418</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4242,13 @@
         <v>312711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>295</v>
@@ -4200,13 +4257,13 @@
         <v>317937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>603</v>
@@ -4215,10 +4272,10 @@
         <v>630648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>111</v>
@@ -4283,49 +4340,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>24524</v>
+        <v>15140</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>79804</v>
+        <v>55286</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>104328</v>
+        <v>70425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,49 +4391,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>602</v>
+        <v>330</v>
       </c>
       <c r="D14" s="7">
-        <v>644196</v>
+        <v>358842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
-        <v>553</v>
+        <v>319</v>
       </c>
       <c r="I14" s="7">
-        <v>596392</v>
+        <v>333665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
-        <v>1155</v>
+        <v>649</v>
       </c>
       <c r="N14" s="7">
-        <v>1240588</v>
+        <v>692508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,10 +4442,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4400,10 +4457,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4415,10 +4472,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4444,13 +4501,13 @@
         <v>10105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4459,13 +4516,13 @@
         <v>33302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -4474,13 +4531,13 @@
         <v>43407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4552,13 @@
         <v>202513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4510,13 +4567,13 @@
         <v>186289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>367</v>
@@ -4525,13 +4582,13 @@
         <v>388802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4656,13 @@
         <v>9470</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4614,10 +4671,10 @@
         <v>26685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>35</v>
@@ -4629,7 +4686,7 @@
         <v>36155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>54</v>
@@ -4650,13 +4707,13 @@
         <v>264511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>242</v>
@@ -4665,13 +4722,13 @@
         <v>251411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>494</v>
@@ -4680,7 +4737,7 @@
         <v>515922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>131</v>
@@ -4754,13 +4811,13 @@
         <v>27265</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -4769,13 +4826,13 @@
         <v>79780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -4784,13 +4841,13 @@
         <v>107045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4862,13 @@
         <v>635523</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>565</v>
@@ -4820,13 +4877,13 @@
         <v>614073</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1159</v>
@@ -4835,13 +4892,13 @@
         <v>1249596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4966,13 @@
         <v>10650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -4924,13 +4981,13 @@
         <v>67088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -4939,13 +4996,13 @@
         <v>77738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +5017,13 @@
         <v>768448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>694</v>
@@ -4975,13 +5032,13 @@
         <v>754443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>1401</v>
@@ -4990,13 +5047,13 @@
         <v>1522891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5121,13 @@
         <v>106891</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>318</v>
@@ -5079,13 +5136,13 @@
         <v>345832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -5094,13 +5151,13 @@
         <v>452724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5172,13 @@
         <v>3319888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="H29" s="7">
         <v>2977</v>
@@ -5130,28 +5187,28 @@
         <v>3208220</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>6088</v>
       </c>
       <c r="N29" s="7">
-        <v>6528106</v>
+        <v>6528107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,7 +5250,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5231,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72568BF0-1327-4E76-BB0A-C49D435E9B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A8A539-BBB5-4749-9AE4-50A24AC8964E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5248,7 +5305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5355,13 +5412,13 @@
         <v>5752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5370,13 +5427,13 @@
         <v>29265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -5385,13 +5442,13 @@
         <v>35017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5463,13 @@
         <v>288009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>249</v>
@@ -5421,13 +5478,13 @@
         <v>259438</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>509</v>
@@ -5436,13 +5493,13 @@
         <v>547447</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5567,13 @@
         <v>9178</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -5525,13 +5582,13 @@
         <v>24638</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -5543,10 +5600,10 @@
         <v>68</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5618,13 @@
         <v>493397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>464</v>
@@ -5576,13 +5633,13 @@
         <v>498446</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -5594,10 +5651,10 @@
         <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5722,13 @@
         <v>10593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5680,13 +5737,13 @@
         <v>14065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5695,13 +5752,13 @@
         <v>24658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5773,13 @@
         <v>307972</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -5731,13 +5788,13 @@
         <v>322244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -5746,13 +5803,13 @@
         <v>630216</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5877,13 @@
         <v>7842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5835,13 +5892,13 @@
         <v>18899</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -5853,10 +5910,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5928,13 @@
         <v>362122</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>342</v>
@@ -5886,13 +5943,13 @@
         <v>368384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>688</v>
@@ -5904,10 +5961,10 @@
         <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +6032,13 @@
         <v>1001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5990,13 +6047,13 @@
         <v>13854</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -6005,13 +6062,13 @@
         <v>14856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6083,13 @@
         <v>210220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -6041,13 +6098,13 @@
         <v>204733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>421</v>
@@ -6056,13 +6113,13 @@
         <v>414952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6187,13 @@
         <v>8905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6145,13 +6202,13 @@
         <v>17708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6160,13 +6217,13 @@
         <v>26613</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6238,13 @@
         <v>254218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -6196,13 +6253,13 @@
         <v>255407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -6211,13 +6268,13 @@
         <v>509625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,10 +6342,10 @@
         <v>21258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>109</v>
@@ -6300,13 +6357,13 @@
         <v>71464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -6315,13 +6372,13 @@
         <v>92722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6393,13 @@
         <v>635300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>584</v>
@@ -6351,13 +6408,13 @@
         <v>619830</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>1144</v>
@@ -6366,13 +6423,13 @@
         <v>1255130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6497,13 @@
         <v>17183</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -6455,13 +6512,13 @@
         <v>63230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6470,13 +6527,13 @@
         <v>80412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6548,13 @@
         <v>761400</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>702</v>
@@ -6506,13 +6563,13 @@
         <v>762937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>1436</v>
@@ -6521,13 +6578,13 @@
         <v>1524338</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6652,13 @@
         <v>81712</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>221</v>
@@ -6613,10 +6670,10 @@
         <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>303</v>
@@ -6625,13 +6682,13 @@
         <v>334835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6703,13 @@
         <v>3312638</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>3117</v>
@@ -6664,10 +6721,10 @@
         <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="M29" s="7">
         <v>6266</v>
@@ -6676,13 +6733,13 @@
         <v>6604057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABBF9D6-A725-4C6B-BE1D-851BDA968FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF22D1A-5692-45D5-8387-A8A702BAC9E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6779,7 +6836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6883,46 +6940,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>4701</v>
+        <v>5323</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>468</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>7472</v>
+        <v>7679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>12173</v>
+        <v>13002</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,46 +6991,46 @@
         <v>324</v>
       </c>
       <c r="D5" s="7">
-        <v>255597</v>
+        <v>306120</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>477</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>478</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="H5" s="7">
         <v>521</v>
       </c>
       <c r="I5" s="7">
-        <v>263771</v>
+        <v>281789</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="M5" s="7">
         <v>845</v>
       </c>
       <c r="N5" s="7">
-        <v>519368</v>
+        <v>587909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,7 +7042,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7000,7 +7057,7 @@
         <v>537</v>
       </c>
       <c r="I6" s="7">
-        <v>271243</v>
+        <v>289468</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7015,7 +7072,7 @@
         <v>868</v>
       </c>
       <c r="N6" s="7">
-        <v>531541</v>
+        <v>600911</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7038,46 +7095,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>12569</v>
+        <v>11835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>32583</v>
+        <v>29899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>45153</v>
+        <v>41734</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>491</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,46 +7146,46 @@
         <v>369</v>
       </c>
       <c r="D8" s="7">
-        <v>505658</v>
+        <v>505558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>667</v>
       </c>
       <c r="I8" s="7">
-        <v>519701</v>
+        <v>482934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>1036</v>
       </c>
       <c r="N8" s="7">
-        <v>1025358</v>
+        <v>988492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7197,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7155,7 +7212,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552284</v>
+        <v>512833</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7170,7 +7227,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070511</v>
+        <v>1030226</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7193,46 +7250,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>19787</v>
+        <v>18870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>31000</v>
+        <v>28476</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>50787</v>
+        <v>47347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>480</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,46 +7301,46 @@
         <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>302453</v>
+        <v>297180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
       </c>
       <c r="I11" s="7">
-        <v>342284</v>
+        <v>320652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
       </c>
       <c r="N11" s="7">
-        <v>644737</v>
+        <v>617831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7352,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7310,7 +7367,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7325,7 +7382,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7348,46 +7405,46 @@
         <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>13349</v>
+        <v>12832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>22926</v>
+        <v>21308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>36276</v>
+        <v>34140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>495</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,46 +7456,46 @@
         <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>308891</v>
+        <v>299725</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>496</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>552</v>
       </c>
       <c r="I14" s="7">
-        <v>405630</v>
+        <v>454410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
       </c>
       <c r="N14" s="7">
-        <v>714520</v>
+        <v>754134</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,7 +7507,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7465,7 +7522,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7480,7 +7537,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7503,46 +7560,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>6303</v>
+        <v>5686</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>501</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>24466</v>
+        <v>22164</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>527</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>30768</v>
+        <v>27850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,46 +7611,46 @@
         <v>268</v>
       </c>
       <c r="D17" s="7">
-        <v>190445</v>
+        <v>173056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>206708</v>
+        <v>185810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>536</v>
       </c>
       <c r="M17" s="7">
         <v>699</v>
       </c>
       <c r="N17" s="7">
-        <v>397153</v>
+        <v>358866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,7 +7662,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7620,7 +7677,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231174</v>
+        <v>207974</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7635,7 +7692,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427921</v>
+        <v>386716</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7658,46 +7715,46 @@
         <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>23428</v>
+        <v>22438</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>541</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>40767</v>
+        <v>37896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
       </c>
       <c r="N19" s="7">
-        <v>64196</v>
+        <v>60333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,46 +7766,46 @@
         <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>253795</v>
+        <v>247198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>370</v>
       </c>
       <c r="I20" s="7">
-        <v>234138</v>
+        <v>218491</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="M20" s="7">
         <v>695</v>
       </c>
       <c r="N20" s="7">
-        <v>487931</v>
+        <v>465690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,7 +7817,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7775,7 +7832,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7790,7 +7847,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7813,46 +7870,46 @@
         <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>41515</v>
+        <v>40227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>531</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>171</v>
       </c>
       <c r="I22" s="7">
-        <v>116212</v>
+        <v>106951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
       </c>
       <c r="N22" s="7">
-        <v>157728</v>
+        <v>147177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,46 +7921,46 @@
         <v>551</v>
       </c>
       <c r="D23" s="7">
-        <v>581838</v>
+        <v>579812</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>538</v>
+        <v>304</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>539</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>783</v>
       </c>
       <c r="I23" s="7">
-        <v>684934</v>
+        <v>739488</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>484</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>1334</v>
       </c>
       <c r="N23" s="7">
-        <v>1266771</v>
+        <v>1319302</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,7 +7972,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>623353</v>
+        <v>620039</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7930,7 +7987,7 @@
         <v>954</v>
       </c>
       <c r="I24" s="7">
-        <v>801146</v>
+        <v>846439</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7945,7 +8002,7 @@
         <v>1549</v>
       </c>
       <c r="N24" s="7">
-        <v>1424499</v>
+        <v>1466479</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7968,46 +8025,46 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>25721</v>
+        <v>21696</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
       </c>
       <c r="I25" s="7">
-        <v>58980</v>
+        <v>48308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
         <v>102</v>
       </c>
       <c r="N25" s="7">
-        <v>84702</v>
+        <v>70004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,46 +8076,46 @@
         <v>734</v>
       </c>
       <c r="D26" s="7">
-        <v>833707</v>
+        <v>907024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="H26" s="7">
         <v>986</v>
       </c>
       <c r="I26" s="7">
-        <v>805891</v>
+        <v>666404</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>1720</v>
       </c>
       <c r="N26" s="7">
-        <v>1639597</v>
+        <v>1573429</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,7 +8127,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8085,7 +8142,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>864871</v>
+        <v>714712</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8100,7 +8157,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724299</v>
+        <v>1643433</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8123,46 +8180,46 @@
         <v>192</v>
       </c>
       <c r="D28" s="7">
-        <v>147374</v>
+        <v>138907</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>561</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>562</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>242</v>
       </c>
       <c r="H28" s="7">
         <v>559</v>
       </c>
       <c r="I28" s="7">
-        <v>334408</v>
+        <v>302680</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="M28" s="7">
         <v>751</v>
       </c>
       <c r="N28" s="7">
-        <v>481781</v>
+        <v>441588</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,46 +8231,46 @@
         <v>3179</v>
       </c>
       <c r="D29" s="7">
-        <v>3232382</v>
+        <v>3315673</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>570</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>571</v>
+        <v>251</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>572</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>4790</v>
       </c>
       <c r="I29" s="7">
-        <v>3463054</v>
+        <v>3349979</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>7969</v>
       </c>
       <c r="N29" s="7">
-        <v>6695437</v>
+        <v>6665651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,7 +8282,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3379756</v>
+        <v>3454580</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8240,7 +8297,7 @@
         <v>5349</v>
       </c>
       <c r="I30" s="7">
-        <v>3797462</v>
+        <v>3652659</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8255,7 +8312,7 @@
         <v>8720</v>
       </c>
       <c r="N30" s="7">
-        <v>7177218</v>
+        <v>7107239</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
